--- a/Sirison_Wu_4.xlsx
+++ b/Sirison_Wu_4.xlsx
@@ -20,181 +20,181 @@
     <t xml:space="preserve">load</t>
   </si>
   <si>
-    <t xml:space="preserve">4892.85459142869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4488.91774252794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4144.06393046895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4538.31189999227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5216.89461422833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5080.55658432207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4371.90993681753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4681.41718333295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5612.10252026725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5817.44923576075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5292.1038989045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5088.07618240252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4818.66006536475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4412.50419981899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4411.03085145783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3931.01300077282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3925.66669972815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4300.92623179048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4505.94053125235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4420.02593468687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4423.60796176874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4643.4642816666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4943.95683797854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4867.7483262456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4889.10064048219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4903.70383379123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4291.05591870037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3565.19207272661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3729.7771415951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3959.33564762446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3844.17771861922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3731.18816510916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3763.69092796424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4030.62151250257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3855.5062313163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3947.768864314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3758.90897774047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3688.22936976483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4098.42972751472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3953.35238674693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3656.16783199981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3821.92758386001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3960.90834198008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3673.79814262742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3094.44012449746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3495.58566152801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3590.73637521989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3220.51366101225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3348.14714171354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3470.69789549513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3600.05436305821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3491.45430985365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3605.16805928404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3436.05859099477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2928.55285757845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2777.79946679298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2293.62161780023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2273.46131639034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3085.8660381865</t>
+    <t xml:space="preserve">4713.27222902221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4477.22447027828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4422.2848398852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5290.61553036408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5014.80456034728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3705.48432572744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3262.35934822775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4007.97565009256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4737.71399210691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4591.30796665285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4112.42512352599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3706.11032151051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3824.17515878164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4383.73511289005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4885.93541206312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4223.42764057181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4900.21081280571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4567.27359627331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4752.93432784678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5494.52226906295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5754.13317439897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5822.44455467692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6018.0598978526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6040.43173065557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5423.61703978126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5345.35563962067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4906.96809099465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4078.400067076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4023.73838249103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4292.15150616322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4353.14845640781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4160.45866161013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4087.52055017215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4501.76192381236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5183.56264924385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4666.45167043125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4182.00770260998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4213.8771469774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4297.60857437324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3723.2528110621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3749.77056038404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4076.61465371741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4297.45173197103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3832.5965624318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3380.8788539635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3235.33411936833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3384.63552335493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2716.94769066676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2310.0656285579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2303.07804668836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2111.40439251514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1848.67689622546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2344.60652914663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2785.67605743836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2556.52238677518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2459.31645592647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2394.44759444774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2372.99048227395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2574.49474750102</t>
   </si>
 </sst>
 </file>

--- a/Sirison_Wu_4.xlsx
+++ b/Sirison_Wu_4.xlsx
@@ -20,181 +20,181 @@
     <t xml:space="preserve">load</t>
   </si>
   <si>
-    <t xml:space="preserve">4713.27222902221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4477.22447027828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4422.2848398852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5290.61553036408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5014.80456034728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3705.48432572744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3262.35934822775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4007.97565009256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4737.71399210691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4591.30796665285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4112.42512352599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3706.11032151051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3824.17515878164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4383.73511289005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4885.93541206312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4223.42764057181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4900.21081280571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4567.27359627331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4752.93432784678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5494.52226906295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5754.13317439897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5822.44455467692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6018.0598978526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6040.43173065557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5423.61703978126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5345.35563962067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4906.96809099465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4078.400067076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4023.73838249103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4292.15150616322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4353.14845640781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4160.45866161013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4087.52055017215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4501.76192381236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5183.56264924385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4666.45167043125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4182.00770260998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4213.8771469774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4297.60857437324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3723.2528110621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3749.77056038404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4076.61465371741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4297.45173197103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3832.5965624318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3380.8788539635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3235.33411936833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3384.63552335493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2716.94769066676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2310.0656285579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2303.07804668836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2111.40439251514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1848.67689622546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2344.60652914663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2785.67605743836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2556.52238677518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2459.31645592647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2394.44759444774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2372.99048227395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2574.49474750102</t>
+    <t xml:space="preserve">4899.72994247502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4954.5834119791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4627.38039383949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4818.33933151614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5215.3077352941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5056.90742056476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4727.22043947116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4756.85643716733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5199.59268787012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4956.05372995775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4963.66658911634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5204.60488146978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4884.69139215343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4536.35482772523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4478.14289966738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4515.11875023487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4399.97985923835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4443.92436553448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4627.13176185543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4629.66475473928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4310.14523949487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4291.82213992905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4422.749397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4342.03006561554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4242.84212335077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4287.32849131957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4269.42238897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3792.43739603327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3663.49612151861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3822.71474939873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3755.18351038433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3652.72583671197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3805.528475788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4017.12917734057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3754.49141045547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3662.81366436295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3552.42663390259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3408.29478184251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3725.89823153477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3815.40127964379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3801.01477006206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3840.35560178317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3766.23529504599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3478.64418262134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3323.28456233788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3592.36411388252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3550.03565330318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3593.48411681952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3855.11003843626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3704.97370853499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3469.43917890249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3134.75976374982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3188.28965082682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3217.63382998095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2951.27852820836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2755.31685264154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2701.86966337751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2594.63224729918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3067.50659309206</t>
   </si>
 </sst>
 </file>

--- a/Sirison_Wu_4.xlsx
+++ b/Sirison_Wu_4.xlsx
@@ -1,200 +1,208 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/86f81e4758e3ccfa/Documents/Competition/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_EA92913700F96282008736AC9337EA57A91DF6B2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">load</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4899.72994247502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4954.5834119791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4627.38039383949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4818.33933151614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5215.3077352941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5056.90742056476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4727.22043947116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4756.85643716733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5199.59268787012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4956.05372995775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4963.66658911634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5204.60488146978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4884.69139215343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4536.35482772523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4478.14289966738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4515.11875023487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4399.97985923835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4443.92436553448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4627.13176185543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4629.66475473928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4310.14523949487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4291.82213992905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4422.749397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4342.03006561554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4242.84212335077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4287.32849131957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4269.42238897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3792.43739603327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3663.49612151861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3822.71474939873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3755.18351038433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3652.72583671197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3805.528475788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4017.12917734057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3754.49141045547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3662.81366436295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3552.42663390259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3408.29478184251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3725.89823153477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3815.40127964379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3801.01477006206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3840.35560178317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3766.23529504599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3478.64418262134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3323.28456233788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3592.36411388252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3550.03565330318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3593.48411681952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3855.11003843626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3704.97370853499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3469.43917890249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3134.75976374982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3188.28965082682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3217.63382998095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2951.27852820836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2755.31685264154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2701.86966337751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2594.63224729918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3067.50659309206</t>
+    <t>date</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>4899.72994247502</t>
+  </si>
+  <si>
+    <t>4954.5834119791</t>
+  </si>
+  <si>
+    <t>4627.38039383949</t>
+  </si>
+  <si>
+    <t>4818.33933151614</t>
+  </si>
+  <si>
+    <t>5215.3077352941</t>
+  </si>
+  <si>
+    <t>5056.90742056476</t>
+  </si>
+  <si>
+    <t>4727.22043947116</t>
+  </si>
+  <si>
+    <t>4756.85643716733</t>
+  </si>
+  <si>
+    <t>5199.59268787012</t>
+  </si>
+  <si>
+    <t>4956.05372995775</t>
+  </si>
+  <si>
+    <t>4963.66658911634</t>
+  </si>
+  <si>
+    <t>5204.60488146978</t>
+  </si>
+  <si>
+    <t>4884.69139215343</t>
+  </si>
+  <si>
+    <t>4536.35482772523</t>
+  </si>
+  <si>
+    <t>4478.14289966738</t>
+  </si>
+  <si>
+    <t>4515.11875023487</t>
+  </si>
+  <si>
+    <t>4399.97985923835</t>
+  </si>
+  <si>
+    <t>4443.92436553448</t>
+  </si>
+  <si>
+    <t>4627.13176185543</t>
+  </si>
+  <si>
+    <t>4629.66475473928</t>
+  </si>
+  <si>
+    <t>4310.14523949487</t>
+  </si>
+  <si>
+    <t>4291.82213992905</t>
+  </si>
+  <si>
+    <t>4422.749397705</t>
+  </si>
+  <si>
+    <t>4342.03006561554</t>
+  </si>
+  <si>
+    <t>4242.84212335077</t>
+  </si>
+  <si>
+    <t>4287.32849131957</t>
+  </si>
+  <si>
+    <t>4269.42238897949</t>
+  </si>
+  <si>
+    <t>3792.43739603327</t>
+  </si>
+  <si>
+    <t>3663.49612151861</t>
+  </si>
+  <si>
+    <t>3822.71474939873</t>
+  </si>
+  <si>
+    <t>3755.18351038433</t>
+  </si>
+  <si>
+    <t>3652.72583671197</t>
+  </si>
+  <si>
+    <t>3805.528475788</t>
+  </si>
+  <si>
+    <t>4017.12917734057</t>
+  </si>
+  <si>
+    <t>3754.49141045547</t>
+  </si>
+  <si>
+    <t>3662.81366436295</t>
+  </si>
+  <si>
+    <t>3552.42663390259</t>
+  </si>
+  <si>
+    <t>3408.29478184251</t>
+  </si>
+  <si>
+    <t>3725.89823153477</t>
+  </si>
+  <si>
+    <t>3815.40127964379</t>
+  </si>
+  <si>
+    <t>3801.01477006206</t>
+  </si>
+  <si>
+    <t>3840.35560178317</t>
+  </si>
+  <si>
+    <t>3766.23529504599</t>
+  </si>
+  <si>
+    <t>3478.64418262134</t>
+  </si>
+  <si>
+    <t>3323.28456233788</t>
+  </si>
+  <si>
+    <t>3592.36411388252</t>
+  </si>
+  <si>
+    <t>3550.03565330318</t>
+  </si>
+  <si>
+    <t>3593.48411681952</t>
+  </si>
+  <si>
+    <t>3855.11003843626</t>
+  </si>
+  <si>
+    <t>3704.97370853499</t>
+  </si>
+  <si>
+    <t>3469.43917890249</t>
+  </si>
+  <si>
+    <t>3134.75976374982</t>
+  </si>
+  <si>
+    <t>3188.28965082682</t>
+  </si>
+  <si>
+    <t>3217.63382998095</t>
+  </si>
+  <si>
+    <t>2951.27852820836</t>
+  </si>
+  <si>
+    <t>2755.31685264154</t>
+  </si>
+  <si>
+    <t>2701.86966337751</t>
+  </si>
+  <si>
+    <t>2594.63224729918</t>
+  </si>
+  <si>
+    <t>3067.50659309206</t>
   </si>
 </sst>
 </file>
@@ -202,9 +210,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -216,6 +224,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -240,12 +249,21 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -527,14 +545,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,472 +560,472 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>40544</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>40545</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>40546</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>40547</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>40548</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>40549</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>40550</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>40551</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>40552</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>40553</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>40554</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>40555</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>40556</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>40557</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>40558</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>40559</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>40560</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>40561</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>40562</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>40563</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>40564</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
         <v>40565</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>40566</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
         <v>40567</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <v>40568</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
         <v>40569</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
         <v>40570</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
         <v>40571</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <v>40572</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
         <v>40573</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
         <v>40574</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
         <v>40575</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <v>40576</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
         <v>40577</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
         <v>40578</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
         <v>40579</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <v>40580</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
         <v>40581</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>40582</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
         <v>40583</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>40584</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <v>40585</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <v>40586</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
         <v>40587</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
         <v>40588</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
         <v>40589</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
         <v>40590</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
         <v>40591</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
         <v>40592</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
         <v>40593</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
         <v>40594</v>
       </c>
       <c r="B52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
         <v>40595</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
         <v>40596</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
         <v>40597</v>
       </c>
       <c r="B55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
         <v>40598</v>
       </c>
       <c r="B56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
         <v>40599</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
         <v>40600</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
         <v>40601</v>
       </c>
       <c r="B59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
         <v>40602</v>
       </c>
       <c r="B60" t="s">
@@ -1016,6 +1034,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Sirison_Wu_4.xlsx
+++ b/Sirison_Wu_4.xlsx
@@ -1,208 +1,200 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/86f81e4758e3ccfa/Documents/Competition/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_EA92913700F96282008736AC9337EA57A91DF6B2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>load</t>
-  </si>
-  <si>
-    <t>4899.72994247502</t>
-  </si>
-  <si>
-    <t>4954.5834119791</t>
-  </si>
-  <si>
-    <t>4627.38039383949</t>
-  </si>
-  <si>
-    <t>4818.33933151614</t>
-  </si>
-  <si>
-    <t>5215.3077352941</t>
-  </si>
-  <si>
-    <t>5056.90742056476</t>
-  </si>
-  <si>
-    <t>4727.22043947116</t>
-  </si>
-  <si>
-    <t>4756.85643716733</t>
-  </si>
-  <si>
-    <t>5199.59268787012</t>
-  </si>
-  <si>
-    <t>4956.05372995775</t>
-  </si>
-  <si>
-    <t>4963.66658911634</t>
-  </si>
-  <si>
-    <t>5204.60488146978</t>
-  </si>
-  <si>
-    <t>4884.69139215343</t>
-  </si>
-  <si>
-    <t>4536.35482772523</t>
-  </si>
-  <si>
-    <t>4478.14289966738</t>
-  </si>
-  <si>
-    <t>4515.11875023487</t>
-  </si>
-  <si>
-    <t>4399.97985923835</t>
-  </si>
-  <si>
-    <t>4443.92436553448</t>
-  </si>
-  <si>
-    <t>4627.13176185543</t>
-  </si>
-  <si>
-    <t>4629.66475473928</t>
-  </si>
-  <si>
-    <t>4310.14523949487</t>
-  </si>
-  <si>
-    <t>4291.82213992905</t>
-  </si>
-  <si>
-    <t>4422.749397705</t>
-  </si>
-  <si>
-    <t>4342.03006561554</t>
-  </si>
-  <si>
-    <t>4242.84212335077</t>
-  </si>
-  <si>
-    <t>4287.32849131957</t>
-  </si>
-  <si>
-    <t>4269.42238897949</t>
-  </si>
-  <si>
-    <t>3792.43739603327</t>
-  </si>
-  <si>
-    <t>3663.49612151861</t>
-  </si>
-  <si>
-    <t>3822.71474939873</t>
-  </si>
-  <si>
-    <t>3755.18351038433</t>
-  </si>
-  <si>
-    <t>3652.72583671197</t>
-  </si>
-  <si>
-    <t>3805.528475788</t>
-  </si>
-  <si>
-    <t>4017.12917734057</t>
-  </si>
-  <si>
-    <t>3754.49141045547</t>
-  </si>
-  <si>
-    <t>3662.81366436295</t>
-  </si>
-  <si>
-    <t>3552.42663390259</t>
-  </si>
-  <si>
-    <t>3408.29478184251</t>
-  </si>
-  <si>
-    <t>3725.89823153477</t>
-  </si>
-  <si>
-    <t>3815.40127964379</t>
-  </si>
-  <si>
-    <t>3801.01477006206</t>
-  </si>
-  <si>
-    <t>3840.35560178317</t>
-  </si>
-  <si>
-    <t>3766.23529504599</t>
-  </si>
-  <si>
-    <t>3478.64418262134</t>
-  </si>
-  <si>
-    <t>3323.28456233788</t>
-  </si>
-  <si>
-    <t>3592.36411388252</t>
-  </si>
-  <si>
-    <t>3550.03565330318</t>
-  </si>
-  <si>
-    <t>3593.48411681952</t>
-  </si>
-  <si>
-    <t>3855.11003843626</t>
-  </si>
-  <si>
-    <t>3704.97370853499</t>
-  </si>
-  <si>
-    <t>3469.43917890249</t>
-  </si>
-  <si>
-    <t>3134.75976374982</t>
-  </si>
-  <si>
-    <t>3188.28965082682</t>
-  </si>
-  <si>
-    <t>3217.63382998095</t>
-  </si>
-  <si>
-    <t>2951.27852820836</t>
-  </si>
-  <si>
-    <t>2755.31685264154</t>
-  </si>
-  <si>
-    <t>2701.86966337751</t>
-  </si>
-  <si>
-    <t>2594.63224729918</t>
-  </si>
-  <si>
-    <t>3067.50659309206</t>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4920.80547475879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4635.20200755716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4426.34574493974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4908.79298331705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5640.57240762057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5141.5391246127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4508.32779936859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4652.17311684805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5788.470495093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5927.09547791604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5302.12729345653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5107.41006826213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4850.29462774252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4679.91435515556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4608.99131151494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4052.69323274937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4027.94241753527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4087.29550269109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4114.00914897595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4101.59568679551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4006.03322674619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4495.56504368607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4957.39739011515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5150.70043942645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5062.60044406057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4926.94140489869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4401.64509232787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3475.52793146981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3526.31893754005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3765.19733934233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3550.66036003266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3418.03486810384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3594.19414211663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4193.5771273045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4126.4226924108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3977.4260886237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3647.66155567558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3478.98627896281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3751.77668478653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3911.24695906088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3598.96399627574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3822.25596038007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3964.96528950548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3702.12677198402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3166.90843575507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3491.25056291977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3467.42058041693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3120.06591181745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3225.56962211282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3487.71523686905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3762.33155459844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3833.74115723582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3766.86038282955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3452.5265362041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2921.05982505846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2687.68770135558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2216.37815536152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2051.37400089519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2931.27150491974</t>
   </si>
 </sst>
 </file>
@@ -210,9 +202,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -224,7 +216,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -249,21 +240,12 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -545,14 +527,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,472 +542,472 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>40544</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>40545</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>40546</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>40547</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>40548</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>40549</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>40550</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>40551</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>40552</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>40553</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>40554</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>40555</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>40556</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>40557</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>40558</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>40559</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>40560</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>40561</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>40562</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>40563</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>40564</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>40565</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>40566</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>40567</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>40568</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>40569</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>40570</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>40571</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>40572</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>40573</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>40574</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>40575</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>40576</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>40577</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>40578</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>40579</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>40580</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>40581</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>40582</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>40583</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="42">
+      <c r="A42" s="1" t="n">
         <v>40584</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+    <row r="43">
+      <c r="A43" s="1" t="n">
         <v>40585</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="44">
+      <c r="A44" s="1" t="n">
         <v>40586</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="45">
+      <c r="A45" s="1" t="n">
         <v>40587</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+    <row r="46">
+      <c r="A46" s="1" t="n">
         <v>40588</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+    <row r="47">
+      <c r="A47" s="1" t="n">
         <v>40589</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+    <row r="48">
+      <c r="A48" s="1" t="n">
         <v>40590</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+    <row r="49">
+      <c r="A49" s="1" t="n">
         <v>40591</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+    <row r="50">
+      <c r="A50" s="1" t="n">
         <v>40592</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+    <row r="51">
+      <c r="A51" s="1" t="n">
         <v>40593</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+    <row r="52">
+      <c r="A52" s="1" t="n">
         <v>40594</v>
       </c>
       <c r="B52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+    <row r="53">
+      <c r="A53" s="1" t="n">
         <v>40595</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+    <row r="54">
+      <c r="A54" s="1" t="n">
         <v>40596</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+    <row r="55">
+      <c r="A55" s="1" t="n">
         <v>40597</v>
       </c>
       <c r="B55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+    <row r="56">
+      <c r="A56" s="1" t="n">
         <v>40598</v>
       </c>
       <c r="B56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+    <row r="57">
+      <c r="A57" s="1" t="n">
         <v>40599</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+    <row r="58">
+      <c r="A58" s="1" t="n">
         <v>40600</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+    <row r="59">
+      <c r="A59" s="1" t="n">
         <v>40601</v>
       </c>
       <c r="B59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+    <row r="60">
+      <c r="A60" s="1" t="n">
         <v>40602</v>
       </c>
       <c r="B60" t="s">
@@ -1034,6 +1016,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Sirison_Wu_4.xlsx
+++ b/Sirison_Wu_4.xlsx
@@ -20,181 +20,181 @@
     <t xml:space="preserve">load</t>
   </si>
   <si>
-    <t xml:space="preserve">4920.80547475879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4635.20200755716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4426.34574493974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4908.79298331705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5640.57240762057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5141.5391246127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4508.32779936859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4652.17311684805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5788.470495093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5927.09547791604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5302.12729345653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5107.41006826213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4850.29462774252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4679.91435515556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4608.99131151494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4052.69323274937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4027.94241753527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4087.29550269109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4114.00914897595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4101.59568679551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4006.03322674619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4495.56504368607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4957.39739011515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5150.70043942645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5062.60044406057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4926.94140489869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4401.64509232787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3475.52793146981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3526.31893754005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3765.19733934233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3550.66036003266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3418.03486810384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3594.19414211663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4193.5771273045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4126.4226924108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3977.4260886237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3647.66155567558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3478.98627896281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3751.77668478653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3911.24695906088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3598.96399627574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3822.25596038007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3964.96528950548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3702.12677198402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3166.90843575507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3491.25056291977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3467.42058041693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3120.06591181745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3225.56962211282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3487.71523686905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3762.33155459844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3833.74115723582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3766.86038282955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3452.5265362041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2921.05982505846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2687.68770135558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2216.37815536152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2051.37400089519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2931.27150491974</t>
+    <t xml:space="preserve">4729.96898807193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4541.00774065901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4263.05811325876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4668.12236373647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5353.69017300306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4987.30452247343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4287.81616961662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4719.98919417636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5741.38278026552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5787.10186604129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5271.03111023985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5084.3140135941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4884.70064180077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4575.25085298531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4643.13129674006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3866.94662428966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3814.10943952795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4005.23953655767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4002.54901734849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3974.94947973203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3941.47063606151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4358.02498815333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4728.60007782442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4862.34023643476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4853.88014406701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4789.15714268474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4266.87642750304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3411.02344817977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3559.04481699355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3775.7959099094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3592.49870851192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3584.41748875423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3683.76353922524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3888.50699525308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3838.7587509643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3958.62716565153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3708.76753720394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3583.6363031808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3908.27077002314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3999.78391040696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3721.61707547779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3804.08285022608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3866.45819323553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3626.91106388695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3139.52139869753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3585.34221991212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3527.89473696227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3121.40323144923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3060.99148593239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3153.67985414287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3481.651252337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3618.19962199267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3540.81916633354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3259.56032140569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2884.76649361497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2683.23362374665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2360.88029296651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2197.44870881259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3082.65830290635</t>
   </si>
 </sst>
 </file>

--- a/Sirison_Wu_4.xlsx
+++ b/Sirison_Wu_4.xlsx
@@ -20,181 +20,181 @@
     <t xml:space="preserve">load</t>
   </si>
   <si>
-    <t xml:space="preserve">4729.96898807193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4541.00774065901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4263.05811325876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4668.12236373647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5353.69017300306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4987.30452247343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4287.81616961662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4719.98919417636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5741.38278026552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5787.10186604129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5271.03111023985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5084.3140135941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4884.70064180077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4575.25085298531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4643.13129674006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3866.94662428966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3814.10943952795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4005.23953655767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4002.54901734849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3974.94947973203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3941.47063606151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4358.02498815333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4728.60007782442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4862.34023643476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4853.88014406701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4789.15714268474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4266.87642750304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3411.02344817977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3559.04481699355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3775.7959099094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3592.49870851192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3584.41748875423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3683.76353922524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3888.50699525308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3838.7587509643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3958.62716565153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3708.76753720394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3583.6363031808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3908.27077002314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3999.78391040696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3721.61707547779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3804.08285022608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3866.45819323553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3626.91106388695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3139.52139869753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3585.34221991212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3527.89473696227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3121.40323144923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3060.99148593239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3153.67985414287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3481.651252337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3618.19962199267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3540.81916633354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3259.56032140569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2884.76649361497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2683.23362374665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2360.88029296651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2197.44870881259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3082.65830290635</t>
+    <t xml:space="preserve">4679.72904111982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4308.84830797583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4129.08045921105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4474.59262240775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5008.25217045933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4729.24652270023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4147.14233325753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4547.92414184654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5806.78867791722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5916.96142366454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5473.84432625173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5278.24924012962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5026.07276535841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4610.52395020822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4540.26790800307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3795.99784564509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3840.74868908355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4032.13581690072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4193.61277779217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4345.55074580997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4363.61818388029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4743.02893899865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4982.61337270438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5231.73759585713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5097.56297585319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5005.60620289394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4246.8562192283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3405.41800095542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3565.7884227653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3818.727763478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3631.75640460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3757.99060708267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3696.78228702754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4085.6817596492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3912.21547515599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3706.95975042768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3549.1105854924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3692.10364889555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4018.14506281948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3996.83570451008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3790.30179327669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3905.82842726638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3902.69670919728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3677.59932076924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3196.93605062608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3544.85211394026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3540.6725995732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3296.29851866949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3247.21177253773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3543.1478394473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3800.5709718715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3730.0541994227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3482.88632576617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3187.02909313298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2678.71467284443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2476.3482211312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1985.09938046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2128.43102022349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3045.30241404592</t>
   </si>
 </sst>
 </file>
